--- a/RF_saved/RF_Results.xlsx
+++ b/RF_saved/RF_Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloestipinovich/Documents/2020/Thesis Project/grass-pollen/RF_saved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2081F1-6A28-0F41-9733-565EF222F25E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DBF45C-6B8B-D44F-A850-BEB2C7D47556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{5E6F32BD-C33E-9846-863F-8A0789858B75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>Regression</t>
   </si>
@@ -95,6 +96,18 @@
   <si>
     <t>Out of Season</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>0.1875</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Total Accuracy</t>
+  </si>
 </sst>
 </file>
 
@@ -104,7 +117,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +161,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -176,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,6 +209,15 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -199,12 +227,11 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -212,6 +239,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD4AE57"/>
+      <color rgb="FFED7D59"/>
+      <color rgb="FFC4413A"/>
+      <color rgb="FF67A5A5"/>
+      <color rgb="FF3DB8ED"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -221,6 +257,2331 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.48299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B63-9F48-AF53-7D558CD83118}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In Season</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3DB8ED"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.30099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B63-9F48-AF53-7D558CD83118}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Out of Season</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="67A5A5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6B63-9F48-AF53-7D558CD83118}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="710331056"/>
+        <c:axId val="710333024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="710331056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710333024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="710333024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="710331056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C4413A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$11:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$11:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6C6-944B-ADE4-3F528CC61D75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In Season</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D59"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$11:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$11:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E6C6-944B-ADE4-3F528CC61D75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Out of Season</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D4AE57"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$11:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$11:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E6C6-944B-ADE4-3F528CC61D75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="695111328"/>
+        <c:axId val="703890048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="695111328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703890048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="703890048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="695111328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270F9E9E-0C87-2743-9D2F-E6FEB103CC75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>445182</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>41786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>464300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>68279</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE3CFA9-653D-B94B-B185-0CD878358C79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,10 +2881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997DCCE3-3496-BA40-B909-547CA0CBC976}">
-  <dimension ref="A2:O17"/>
+  <dimension ref="A2:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,118 +2942,118 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.79773689999999997</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.46498600000000001</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.46498600000000001</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.32679740000000002</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.56862749999999995</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="8">
         <f>AVERAGE(F3:F5)</f>
         <v>0.38734316666666668</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="8">
         <f>AVERAGE(G3:G5)</f>
         <v>0.27266190000000001</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="8">
         <v>0.56307689999999999</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="8">
         <v>0.34482760000000001</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="8">
         <v>0.68421050000000005</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.78942400000000001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.99905569999999999</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.40771350000000001</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.47382920000000001</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>0.26797389999999999</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0.62380950000000002</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.77521609999999996</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.27678570000000002</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>0.2232143</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>0.22321440000000001</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -716,32 +3077,32 @@
       <c r="H6" s="1">
         <v>0.56372549999999999</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="9">
         <f>AVERAGE(F6:F8)</f>
         <v>0.38051879999999999</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="9">
         <f t="shared" ref="K6" si="0">AVERAGE(G6:G8)</f>
         <v>0.26670949999999999</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="9">
         <v>0.56307689999999999</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="9">
         <v>0.32758619999999999</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="9">
         <v>0.6937799</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -763,16 +3124,16 @@
       <c r="H7" s="1">
         <v>0.62380950000000002</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -794,127 +3155,127 @@
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.77693469999999998</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.99848250000000005</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.51873199999999997</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.49567719999999998</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>0.39726030000000001</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>0.56716420000000001</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="8">
         <f>AVERAGE(F9:F11)</f>
         <v>0.39369843333333332</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="10">
         <f t="shared" ref="K9" si="1">AVERAGE(G9:G11)</f>
         <v>0.27858833333333333</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="8">
         <v>0.57230769999999997</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="8">
         <v>0.35344829999999999</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="8">
         <v>0.6937799</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.77349159999999995</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.99802179999999996</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.41358020000000001</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>0.50617279999999998</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>0.25925930000000003</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>0.68253969999999997</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.76940299999999995</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.99850749999999999</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.46226420000000001</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>0.1792453</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>0.1792454</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -938,32 +3299,32 @@
       <c r="H12" s="1">
         <v>0.58208959999999998</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="9">
         <f>AVERAGE(F12:F14)</f>
         <v>0.3873509</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="9">
         <f t="shared" ref="K12" si="2">AVERAGE(G12:G14)</f>
         <v>0.25736673333333332</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="9">
         <v>0.56615380000000004</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="9">
         <v>0.34482760000000001</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="9">
         <v>0.68899520000000003</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -985,16 +3346,16 @@
       <c r="H13" s="1">
         <v>0.70899469999999998</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1016,169 +3377,360 @@
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.77086489999999996</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>0.99848250000000005</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>0.5164474</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>0.52302630000000006</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>0.3658537</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>0.62983429999999996</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="10">
         <f>AVERAGE(F15:F17)</f>
         <v>0.39874370000000003</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="8">
         <f t="shared" ref="K15" si="3">AVERAGE(G15:G17)</f>
         <v>0.25960006666666668</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="10">
         <v>0.59384619999999999</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="10">
         <v>0.41379310000000002</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="10">
         <v>0.6937799</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.78338280000000005</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>0.99901090000000003</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>0.28723399999999999</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>0.56382980000000005</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>0.30357139999999999</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>0.73529409999999995</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.77388060000000003</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>0.99925370000000002</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>0.3125</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>0.109375</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>0.1093751</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D22" s="11">
+        <v>2018</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="I15:I17"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J15:J17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB25EDC-B5D7-4B42-8119-D21BD1955641}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView topLeftCell="D24" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.438</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.438</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.313</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.188</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.188</v>
+      </c>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.437</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>